--- a/biology/Botanique/Centaurée_rude/Centaurée_rude.xlsx
+++ b/biology/Botanique/Centaurée_rude/Centaurée_rude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_rude</t>
+          <t>Centaurée_rude</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centaurea aspera
 La Centaurée rude (Centaurea aspera) est une espèce de plante à fleurs de la famille des Astéracées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_rude</t>
+          <t>Centaurée_rude</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées vivaces méditerranéennes.
 La plante est basse et ramifiée, à tige duveteuse.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_rude</t>
+          <t>Centaurée_rude</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs
-La floraison a lieu de mai à octobre[1].
+La floraison a lieu de mai à octobre.
 Type d'inflorescence : capitules solitaires
 Répartition des sexes : hermaphrodite
 Type de pollinisation : entomogame, autogame
@@ -559,7 +575,7 @@
 Mode de dissémination : barochore et zoocor (Myrmécochorie ou zoochorie à élaïosome).
 Habitat et répartition
 Habitat type : voir sous-espèces
-Aire de répartition : méditerranéen-atlantique ou méditerranéen. Introduite ailleurs, par exemple aux États-Unis[2]</t>
+Aire de répartition : méditerranéen-atlantique ou méditerranéen. Introduite ailleurs, par exemple aux États-Unis</t>
         </is>
       </c>
     </row>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_rude</t>
+          <t>Centaurée_rude</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,12 +603,14 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Centaurea aspera L. subsp. aspera, des pelouses basophiles mésoméditerranéennes, mésoxérophiles à mésohydriques
 Centaurea aspera L. subsp. pseudosphaerocephala (Shuttlew. ex Rouy) Gugler, des friches vivaces xérophiles, méditerranéennes
 Données d'après: Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004. 
-Sous-espèces selon The Plant List            (9 juin 2014)[3] :
+Sous-espèces selon The Plant List            (9 juin 2014) :
 Centaurea aspera subsp. gentilii (Braun-Blanq. &amp; Maire) Dobignard
 Centaurea aspera subsp. pseudosphaerocephala (Shuttlew. ex Rouy) Gugler
 Centaurea aspera subsp. scorpiurifolia (Dufour) Nyman
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_rude</t>
+          <t>Centaurée_rude</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,7 +642,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Alophium tenuifolium Cass. F.Cuvier
 Calcitrapa heterophylla Moench
